--- a/biology/Zoologie/Bécasseau_semipalmé/Bécasseau_semipalmé.xlsx
+++ b/biology/Zoologie/Bécasseau_semipalmé/Bécasseau_semipalmé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9casseau_semipalm%C3%A9</t>
+          <t>Bécasseau_semipalmé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calidris pusilla
 Le Bécasseau semipalmé (Calidris pusilla) est une espèce d'oiseaux limicoles de la famille des Scolopacidae et de la sous-famille des Calidridinae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9casseau_semipalm%C3%A9</t>
+          <t>Bécasseau_semipalmé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce bécasseau mesure de 13 à 15 cm. Il possède un court bec droit et noir, légèrement enflé à son extrémité.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%A9casseau_semipalm%C3%A9</t>
+          <t>Bécasseau_semipalmé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bécasseau semipalmé forme de grands groupes dans les sites de halte migratoire. Il est souvent associé au Bécasseau d'Alaska.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B%C3%A9casseau_semipalm%C3%A9</t>
+          <t>Bécasseau_semipalmé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau se nourrit essentiellement en picorant mais sonde parfois la vase ou exploite l'eau peu profonde.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B%C3%A9casseau_semipalm%C3%A9</t>
+          <t>Bécasseau_semipalmé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Voix</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Bref "chreup" étouffé, ou "kit" aigu.
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B%C3%A9casseau_semipalm%C3%A9</t>
+          <t>Bécasseau_semipalmé</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Taylor D. (2006) Guide des limicoles d'Europe, d'Asie et d'Amérique du Nord. Delachaux &amp; Niestlé, Paris, 224 p.</t>
         </is>
